--- a/prep_and_checklists/Aveeno  /PREPLIST_Aveeno  _08-14-2025_0.xlsx
+++ b/prep_and_checklists/Aveeno  /PREPLIST_Aveeno  _08-14-2025_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Aveeno  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A830CA5F-FC39-6740-B1C6-BA44C0371149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D3C1CB-0FD0-3546-A849-3E08871B8A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t xml:space="preserve">Aveeno  , Guests: 30   , 8:00 AM - 1:00 PM   ,Tuesday, August 19, 2025  </t>
   </si>
@@ -35,18 +48,9 @@
     <t>Afternoon tea station</t>
   </si>
   <si>
-    <t>Timing TBD</t>
-  </si>
-  <si>
     <t>Need</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Slice  brioche pullman</t>
-  </si>
-  <si>
     <t>Sliced cucumbers</t>
   </si>
   <si>
@@ -59,9 +63,6 @@
     <t>Summer Frittata</t>
   </si>
   <si>
-    <t>horseradish cream cheese</t>
-  </si>
-  <si>
     <t>crumble goat cheese</t>
   </si>
   <si>
@@ -89,9 +90,6 @@
     <t>coca nibs</t>
   </si>
   <si>
-    <t>whipped creme fraiche with chives</t>
-  </si>
-  <si>
     <t>grated coconut</t>
   </si>
   <si>
@@ -111,9 +109,6 @@
   </si>
   <si>
     <t>clean and pick grapes</t>
-  </si>
-  <si>
-    <t>large dice kiwi</t>
   </si>
   <si>
     <t>large dice melon</t>
@@ -153,6 +148,72 @@
       </rPr>
       <t>*GF &amp; VEGAN</t>
     </r>
+  </si>
+  <si>
+    <t>10:30 Am - 11:00AM</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>6 quarts</t>
+  </si>
+  <si>
+    <t>1 quart each  peppers, spinach</t>
+  </si>
+  <si>
+    <t>* See Pastry</t>
+  </si>
+  <si>
+    <t>30 pcs</t>
+  </si>
+  <si>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5lbs </t>
+  </si>
+  <si>
+    <t>1/2 case each cantaloupe and honey dew</t>
+  </si>
+  <si>
+    <t>1/2 case</t>
+  </si>
+  <si>
+    <t>fava hummus</t>
+  </si>
+  <si>
+    <t>Sliced gluten free bread</t>
+  </si>
+  <si>
+    <t>4 loaves</t>
+  </si>
+  <si>
+    <t>4 quarts</t>
+  </si>
+  <si>
+    <t>5 loaves</t>
+  </si>
+  <si>
+    <t>picked dill</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>2x recipe, * See AM Prep</t>
+  </si>
+  <si>
+    <t>60 pcs</t>
+  </si>
+  <si>
+    <t>20 sandwiches</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>whipped cram cheese  with chives</t>
   </si>
 </sst>
 </file>
@@ -269,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,16 +658,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -627,241 +697,237 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
+      <c r="A4" s="10">
+        <v>0.35416666666666669</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +938,7 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="51" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -883,10 +949,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -896,16 +965,17 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>